--- a/pred_ohlcv/54_21/2019-11-21 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 CON ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>-1175724.7995</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-888519.2779</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-888519.2779</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-888519.2779</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3337961.1067</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3337961.1067</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3337961.1067</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3323193.1241</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3473892.3521</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3250608.8452</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2909947.674</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2777205.946299999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2497824.5997</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3187159.368</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2991346.1682</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2991346.1682</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-2955496.2265</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-3156193.295200001</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-3156193.295200001</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-3156193.295200001</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4524449.558800001</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-3936115.172900001</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-5254390.327400001</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-5177506.132667743</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-4948219.466392524</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>72810463.28530745</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>72810463.28530745</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>74075284.66400746</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>73341253.59260745</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>73375866.77050745</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>73132319.08500746</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>72512968.83830746</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>72737932.62470746</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>72750437.66450746</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>72653504.53110747</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>72323188.65360747</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>72600500.84650747</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>72870968.91920747</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>72533227.68350747</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>72352790.24010748</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>72352940.24010748</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>72352940.24010748</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>72149001.75260746</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>72025100.29050747</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>72212228.55340746</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>72292923.10630746</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>72625377.32670747</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>72422711.96150744</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>72726440.89360744</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>72992354.10310744</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>72669418.82110743</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>73275533.98360744</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>73811219.89340743</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>73496733.84650743</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>73912062.01280743</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>73158832.77650742</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>71612998.83410743</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>71243285.34990743</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>70479825.43240742</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>70916646.42900743</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>70490339.36193912</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>69867275.46073912</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>66364085.59836579</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>66107759.88661844</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>65914313.74551844</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>66759496.90758651</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>67307039.52502839</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>67307039.52502839</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>67667573.54362839</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>69476588.61813217</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>73975455.60760173</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>73310163.61240174</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>71504121.07670851</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>71371166.35080852</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>71371166.35080852</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>71611290.82930851</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>71036639.7963085</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>72375585.56240851</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>72375585.56240851</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>72346781.44920851</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>72144496.32700852</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>72144496.32700852</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>71776458.66770852</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>71776458.66770852</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>71142400.62200852</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 CON ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-803911.4708</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-888519.2779</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-888371.2779</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3337961.1067</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2968684.8413</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2777205.946299999</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2497824.5997</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3936115.172900001</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>72810463.28530745</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>72810463.28530745</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>74075284.66400746</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>73341253.59260745</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>73375866.77050745</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>73132319.08500746</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>72512968.83830746</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>72737932.62470746</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>72750437.66450746</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>72653504.53110747</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>72323188.65360747</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>72600500.84650747</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>72870968.91920747</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>72533227.68350747</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>72352790.24010748</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>72352940.24010748</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>72352940.24010748</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>72149001.75260746</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>72025100.29050747</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>72212228.55340746</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>72292923.10630746</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>72625377.32670747</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>72422711.96150744</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>72726440.89360744</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>72992354.10310744</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>72669418.82110743</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>73275533.98360744</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>73811219.89340743</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>73496733.84650743</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>73912062.01280743</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>74380365.05740742</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>73884629.03800742</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>73884629.03800742</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>73529448.80530742</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>73576538.66720742</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>71243285.34990743</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>70916646.42900743</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>70669332.10653912</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>70490339.36193912</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>69867275.46073912</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>69763641.12183912</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>66364085.59836579</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>66107759.88661844</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>65914313.74551844</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>66759496.90758651</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>67307039.52502839</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>67307039.52502839</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>67667573.54362839</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>69476588.61813217</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>73975455.60760173</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>73310163.61240174</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>71504121.07670851</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>71371166.35080852</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>71371166.35080852</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>71611290.82930851</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>71036639.7963085</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>72375585.56240851</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>72375585.56240851</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>72346781.44920851</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>72144496.32700852</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>72144496.32700852</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>71776458.66770852</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>71776458.66770852</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>71142400.62200852</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>71142400.62200852</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>71129943.10367833</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>71145124.50237833</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
